--- a/Data_Sources_and_Preparation/ITC_Trade_Data/841810_GBR_all.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/841810_GBR_all.xlsx
@@ -464,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE173"/>
+  <dimension ref="A1:AE174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14593,6 +14593,9 @@
       <c r="A168">
         <v>6044</v>
       </c>
+      <c r="B168">
+        <v>10737</v>
+      </c>
       <c r="C168">
         <v>4159</v>
       </c>
@@ -14712,6 +14715,9 @@
       <c r="K169">
         <v>7754</v>
       </c>
+      <c r="L169">
+        <v>10737</v>
+      </c>
       <c r="M169">
         <v>11329</v>
       </c>
@@ -14774,6 +14780,9 @@
       <c r="A170">
         <v>6215</v>
       </c>
+      <c r="B170">
+        <v>11246</v>
+      </c>
       <c r="C170">
         <v>4858</v>
       </c>
@@ -14800,6 +14809,9 @@
       </c>
       <c r="K170">
         <v>6264</v>
+      </c>
+      <c r="M170">
+        <v>10737</v>
       </c>
       <c r="N170">
         <v>11329</v>
@@ -14887,6 +14899,12 @@
       <c r="K171">
         <v>6228</v>
       </c>
+      <c r="L171">
+        <v>11246</v>
+      </c>
+      <c r="N171">
+        <v>10737</v>
+      </c>
       <c r="O171">
         <v>17063</v>
       </c>
@@ -14943,9 +14961,15 @@
       <c r="A172">
         <v>11349</v>
       </c>
+      <c r="C172">
+        <v>3983</v>
+      </c>
       <c r="D172">
         <v>1849</v>
       </c>
+      <c r="E172">
+        <v>4260</v>
+      </c>
       <c r="F172">
         <v>201805</v>
       </c>
@@ -14963,6 +14987,9 @@
       </c>
       <c r="K172">
         <v>8058</v>
+      </c>
+      <c r="M172">
+        <v>11246</v>
       </c>
       <c r="O172">
         <v>16218</v>
@@ -15041,12 +15068,18 @@
       <c r="K173">
         <v>10745</v>
       </c>
+      <c r="N173">
+        <v>11246</v>
+      </c>
       <c r="O173">
         <v>11329</v>
       </c>
       <c r="P173">
         <v>13279</v>
       </c>
+      <c r="Q173">
+        <v>3983</v>
+      </c>
       <c r="R173">
         <v>5909</v>
       </c>
@@ -15074,6 +15107,9 @@
       <c r="Z173">
         <v>3577</v>
       </c>
+      <c r="AA173">
+        <v>4260</v>
+      </c>
       <c r="AB173">
         <v>3931</v>
       </c>
@@ -15085,6 +15121,77 @@
       </c>
       <c r="AE173">
         <v>2693</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31">
+      <c r="A174">
+        <v>10985</v>
+      </c>
+      <c r="D174">
+        <v>1552</v>
+      </c>
+      <c r="F174">
+        <v>201807</v>
+      </c>
+      <c r="G174">
+        <v>9479</v>
+      </c>
+      <c r="H174">
+        <v>11349</v>
+      </c>
+      <c r="I174">
+        <v>7421</v>
+      </c>
+      <c r="J174">
+        <v>6044</v>
+      </c>
+      <c r="K174">
+        <v>8186</v>
+      </c>
+      <c r="O174">
+        <v>10737</v>
+      </c>
+      <c r="P174">
+        <v>13762</v>
+      </c>
+      <c r="R174">
+        <v>3983</v>
+      </c>
+      <c r="S174">
+        <v>5909</v>
+      </c>
+      <c r="T174">
+        <v>4159</v>
+      </c>
+      <c r="U174">
+        <v>6016</v>
+      </c>
+      <c r="V174">
+        <v>1409</v>
+      </c>
+      <c r="W174">
+        <v>1849</v>
+      </c>
+      <c r="X174">
+        <v>1282</v>
+      </c>
+      <c r="Y174">
+        <v>3547</v>
+      </c>
+      <c r="Z174">
+        <v>3285</v>
+      </c>
+      <c r="AB174">
+        <v>4260</v>
+      </c>
+      <c r="AC174">
+        <v>3931</v>
+      </c>
+      <c r="AD174">
+        <v>3651</v>
+      </c>
+      <c r="AE174">
+        <v>2700</v>
       </c>
     </row>
   </sheetData>
